--- a/Test cases template  поле поиска.xlsx
+++ b/Test cases template  поле поиска.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="210" yWindow="450" windowWidth="23640" windowHeight="9390" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="hidden" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Template" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Result">Sheet1!$B$2:$B$4</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>passed</t>
   </si>
@@ -239,10 +243,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Предусловие: для теста найти карты которые ещё не заведены в базу;</t>
     </r>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t xml:space="preserve">
 Зайти в систему;
 В поле "Номер карты лояльности" ввести номер карты из предусловия;
@@ -262,112 +273,122 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="21">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFDD0806"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF008080"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Verdana"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Verdana"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF008080"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF865357"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF006411"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -375,7 +396,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -409,12 +430,19 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -429,6 +457,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -440,19 +469,24 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -462,6 +496,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -470,157 +505,142 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" textRotation="90" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -810,42 +830,42 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:K1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="4" width="8.86"/>
-    <col customWidth="1" min="5" max="5" width="31.14"/>
-    <col customWidth="1" min="6" max="6" width="8.86"/>
-    <col customWidth="1" min="7" max="11" width="10.0"/>
+    <col min="1" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:11">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="2:11">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" spans="2:11">
       <c r="B4" s="2"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" spans="2:11">
       <c r="E6" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1829,7 +1849,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <dataValidations>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="K3 B2:B4 E6">
       <formula1>Result</formula1>
     </dataValidation>
@@ -1837,60 +1857,56 @@
       <formula1>Sheet1!$B$2:$B$4</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE980"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="7.0" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B9" sqref="B9" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.86"/>
-    <col customWidth="1" min="2" max="2" width="3.43"/>
-    <col customWidth="1" min="3" max="3" width="20.71"/>
-    <col customWidth="1" min="4" max="4" width="40.86"/>
-    <col customWidth="1" min="5" max="5" width="49.29"/>
-    <col customWidth="1" min="6" max="6" width="41.14"/>
-    <col customWidth="1" min="7" max="7" width="22.14"/>
-    <col customWidth="1" min="8" max="8" width="3.71"/>
-    <col customWidth="1" min="9" max="9" width="5.43"/>
-    <col customWidth="1" min="10" max="10" width="3.43"/>
-    <col customWidth="1" min="11" max="11" width="2.14"/>
-    <col customWidth="1" min="12" max="12" width="13.43"/>
-    <col customWidth="1" min="13" max="13" width="2.14"/>
-    <col customWidth="1" min="14" max="14" width="13.29"/>
-    <col customWidth="1" min="15" max="15" width="2.14"/>
-    <col customWidth="1" min="16" max="16" width="13.43"/>
-    <col customWidth="1" min="17" max="17" width="2.43"/>
-    <col customWidth="1" min="18" max="18" width="13.43"/>
-    <col customWidth="1" min="19" max="19" width="2.43"/>
-    <col customWidth="1" min="20" max="20" width="13.29"/>
-    <col customWidth="1" min="21" max="21" width="2.43"/>
-    <col customWidth="1" min="22" max="22" width="13.43"/>
-    <col customWidth="1" min="23" max="23" width="2.14"/>
-    <col customWidth="1" min="24" max="24" width="13.29"/>
-    <col customWidth="1" min="25" max="25" width="2.14"/>
-    <col customWidth="1" min="26" max="26" width="13.43"/>
-    <col customWidth="1" min="27" max="27" width="2.43"/>
-    <col customWidth="1" min="28" max="28" width="13.43"/>
-    <col customWidth="1" min="29" max="29" width="2.43"/>
-    <col customWidth="1" min="30" max="30" width="13.29"/>
-    <col customWidth="1" min="31" max="31" width="2.43"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="2.42578125" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" customWidth="1"/>
+    <col min="19" max="19" width="2.42578125" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" customWidth="1"/>
+    <col min="21" max="21" width="2.42578125" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" customWidth="1"/>
+    <col min="23" max="23" width="2.140625" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" customWidth="1"/>
+    <col min="25" max="25" width="2.140625" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" customWidth="1"/>
+    <col min="27" max="27" width="2.42578125" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" customWidth="1"/>
+    <col min="29" max="29" width="2.42578125" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" customWidth="1"/>
+    <col min="31" max="31" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:31">
       <c r="A1" s="1"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1955,7 +1971,7 @@
       </c>
       <c r="AE1" s="6"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:31">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1971,7 +1987,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="8">
         <f>COUNTIF(L$8:L$22,"passed")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="8">
@@ -2020,7 +2036,7 @@
       </c>
       <c r="AE2" s="6"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:31">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2035,11 +2051,11 @@
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="9">
-        <v>43937.0</v>
+        <v>43940</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="9">
-        <v>43937.0</v>
+        <v>43941</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="10"/>
@@ -2059,7 +2075,7 @@
       <c r="AD3" s="10"/>
       <c r="AE3" s="6"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:31">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2086,7 +2102,7 @@
       <c r="AC4" s="6"/>
       <c r="AE4" s="6"/>
     </row>
-    <row r="5" ht="25.5" customHeight="1">
+    <row r="5" spans="1:31" ht="25.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2125,1240 +2141,1270 @@
       <c r="AD5" s="11"/>
       <c r="AE5" s="6"/>
     </row>
-    <row r="6" ht="27.0" customHeight="1">
+    <row r="6" spans="1:31" ht="27" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="14" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20" t="s">
+      <c r="K6" s="13"/>
+      <c r="L6" s="42" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="6"/>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="42" t="s">
         <v>17</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="20"/>
+      <c r="P6" s="42"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="20"/>
+      <c r="R6" s="42"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="20"/>
+      <c r="T6" s="42"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="20"/>
+      <c r="V6" s="42"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="20"/>
+      <c r="X6" s="42"/>
       <c r="Y6" s="6"/>
-      <c r="Z6" s="20"/>
+      <c r="Z6" s="42"/>
       <c r="AA6" s="6"/>
-      <c r="AB6" s="20"/>
+      <c r="AB6" s="42"/>
       <c r="AC6" s="6"/>
-      <c r="AD6" s="20"/>
+      <c r="AD6" s="42"/>
       <c r="AE6" s="6"/>
     </row>
-    <row r="7" ht="93.75" customHeight="1">
+    <row r="7" spans="1:31" ht="93.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="21"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="37"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="21"/>
+      <c r="N7" s="37"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="21"/>
+      <c r="P7" s="37"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="21"/>
+      <c r="R7" s="37"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="21"/>
+      <c r="T7" s="37"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="21"/>
+      <c r="V7" s="37"/>
       <c r="W7" s="6"/>
-      <c r="X7" s="21"/>
+      <c r="X7" s="37"/>
       <c r="Y7" s="6"/>
-      <c r="Z7" s="21"/>
+      <c r="Z7" s="37"/>
       <c r="AA7" s="6"/>
-      <c r="AB7" s="21"/>
+      <c r="AB7" s="37"/>
       <c r="AC7" s="6"/>
-      <c r="AD7" s="21"/>
+      <c r="AD7" s="37"/>
       <c r="AE7" s="6"/>
     </row>
-    <row r="8" ht="42.75" customHeight="1">
+    <row r="8" spans="1:31" ht="46.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="6"/>
-      <c r="N8" s="29"/>
+      <c r="N8" s="21"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="29"/>
+      <c r="P8" s="21"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="29"/>
+      <c r="R8" s="21"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="29"/>
+      <c r="T8" s="21"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="29"/>
+      <c r="V8" s="21"/>
       <c r="W8" s="6"/>
-      <c r="X8" s="29"/>
+      <c r="X8" s="21"/>
       <c r="Y8" s="6"/>
-      <c r="Z8" s="29"/>
+      <c r="Z8" s="21"/>
       <c r="AA8" s="6"/>
-      <c r="AB8" s="29"/>
+      <c r="AB8" s="21"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="29"/>
+      <c r="AD8" s="21"/>
       <c r="AE8" s="6"/>
     </row>
-    <row r="9" ht="42.0" customHeight="1">
+    <row r="9" spans="1:31" ht="49.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="29"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="6"/>
-      <c r="N9" s="29"/>
+      <c r="N9" s="21"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="29"/>
+      <c r="P9" s="21"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="29"/>
+      <c r="R9" s="21"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="29"/>
+      <c r="T9" s="21"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="29"/>
+      <c r="V9" s="21"/>
       <c r="W9" s="6"/>
-      <c r="X9" s="29"/>
+      <c r="X9" s="21"/>
       <c r="Y9" s="6"/>
-      <c r="Z9" s="29"/>
+      <c r="Z9" s="21"/>
       <c r="AA9" s="6"/>
-      <c r="AB9" s="29"/>
+      <c r="AB9" s="21"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="29"/>
+      <c r="AD9" s="21"/>
       <c r="AE9" s="6"/>
     </row>
-    <row r="10" ht="41.25" customHeight="1">
+    <row r="10" spans="1:31" ht="45" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="12">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="29"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="6"/>
-      <c r="N10" s="29"/>
+      <c r="N10" s="21"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="29"/>
+      <c r="P10" s="21"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="29"/>
+      <c r="R10" s="21"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="29"/>
+      <c r="T10" s="21"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="29"/>
+      <c r="V10" s="21"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="29"/>
+      <c r="X10" s="21"/>
       <c r="Y10" s="6"/>
-      <c r="Z10" s="29"/>
+      <c r="Z10" s="21"/>
       <c r="AA10" s="6"/>
-      <c r="AB10" s="29"/>
+      <c r="AB10" s="21"/>
       <c r="AC10" s="6"/>
-      <c r="AD10" s="29"/>
+      <c r="AD10" s="21"/>
       <c r="AE10" s="6"/>
     </row>
-    <row r="11" ht="53.25" customHeight="1">
+    <row r="11" spans="1:31" ht="65.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="30">
-        <v>4.0</v>
-      </c>
-      <c r="C11" s="31"/>
+      <c r="B11" s="22">
+        <v>4</v>
+      </c>
+      <c r="C11" s="23"/>
       <c r="D11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="36"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="28"/>
     </row>
-    <row r="12" ht="57.75" customHeight="1">
+    <row r="12" spans="1:31" ht="60.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="29"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="6"/>
-      <c r="N12" s="29"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="29"/>
+      <c r="P12" s="21"/>
       <c r="Q12" s="6"/>
-      <c r="R12" s="29"/>
+      <c r="R12" s="21"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="29"/>
+      <c r="T12" s="21"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="29"/>
+      <c r="V12" s="21"/>
       <c r="W12" s="6"/>
-      <c r="X12" s="29"/>
+      <c r="X12" s="21"/>
       <c r="Y12" s="6"/>
-      <c r="Z12" s="29"/>
+      <c r="Z12" s="21"/>
       <c r="AA12" s="6"/>
-      <c r="AB12" s="29"/>
+      <c r="AB12" s="21"/>
       <c r="AC12" s="6"/>
-      <c r="AD12" s="29"/>
+      <c r="AD12" s="21"/>
       <c r="AE12" s="6"/>
     </row>
-    <row r="13" ht="32.25" customHeight="1">
+    <row r="13" spans="1:31" ht="32.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="C13" s="23"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="15"/>
       <c r="D13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="29"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="6"/>
-      <c r="N13" s="29"/>
+      <c r="N13" s="21"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="29"/>
+      <c r="P13" s="21"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="29"/>
+      <c r="R13" s="21"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="29"/>
+      <c r="T13" s="21"/>
       <c r="U13" s="6"/>
-      <c r="V13" s="29"/>
+      <c r="V13" s="21"/>
       <c r="W13" s="6"/>
-      <c r="X13" s="29"/>
+      <c r="X13" s="21"/>
       <c r="Y13" s="6"/>
-      <c r="Z13" s="29"/>
+      <c r="Z13" s="21"/>
       <c r="AA13" s="6"/>
-      <c r="AB13" s="29"/>
+      <c r="AB13" s="21"/>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="29"/>
+      <c r="AD13" s="21"/>
       <c r="AE13" s="6"/>
     </row>
-    <row r="14" ht="56.25" customHeight="1">
+    <row r="14" spans="1:31" ht="64.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="29"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="6"/>
-      <c r="N14" s="29"/>
+      <c r="N14" s="21"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="29"/>
+      <c r="P14" s="21"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="29"/>
+      <c r="R14" s="21"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="29"/>
+      <c r="T14" s="21"/>
       <c r="U14" s="6"/>
-      <c r="V14" s="29"/>
+      <c r="V14" s="21"/>
       <c r="W14" s="6"/>
-      <c r="X14" s="29"/>
+      <c r="X14" s="21"/>
       <c r="Y14" s="6"/>
-      <c r="Z14" s="29"/>
+      <c r="Z14" s="21"/>
       <c r="AA14" s="6"/>
-      <c r="AB14" s="29"/>
+      <c r="AB14" s="21"/>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="29"/>
+      <c r="AD14" s="21"/>
       <c r="AE14" s="6"/>
     </row>
-    <row r="15" ht="42.75" customHeight="1">
+    <row r="15" spans="1:31" ht="42.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="11"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="29"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="6"/>
-      <c r="N15" s="29"/>
+      <c r="N15" s="21"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="29"/>
+      <c r="P15" s="21"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="29"/>
+      <c r="R15" s="21"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="29"/>
+      <c r="T15" s="21"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="29"/>
+      <c r="V15" s="21"/>
       <c r="W15" s="6"/>
-      <c r="X15" s="29"/>
+      <c r="X15" s="21"/>
       <c r="Y15" s="6"/>
-      <c r="Z15" s="29"/>
+      <c r="Z15" s="21"/>
       <c r="AA15" s="6"/>
-      <c r="AB15" s="29"/>
+      <c r="AB15" s="21"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="29"/>
+      <c r="AD15" s="21"/>
       <c r="AE15" s="6"/>
     </row>
-    <row r="16" ht="56.25" customHeight="1">
+    <row r="16" spans="1:31" ht="62.25" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="12">
-        <v>9.0</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="11"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="29"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="6"/>
-      <c r="N16" s="29"/>
+      <c r="N16" s="21"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="29"/>
+      <c r="P16" s="21"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="29"/>
+      <c r="R16" s="21"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="29"/>
+      <c r="T16" s="21"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="29"/>
+      <c r="V16" s="21"/>
       <c r="W16" s="6"/>
-      <c r="X16" s="29"/>
+      <c r="X16" s="21"/>
       <c r="Y16" s="6"/>
-      <c r="Z16" s="29"/>
+      <c r="Z16" s="21"/>
       <c r="AA16" s="6"/>
-      <c r="AB16" s="29"/>
+      <c r="AB16" s="21"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="29"/>
+      <c r="AD16" s="21"/>
       <c r="AE16" s="6"/>
     </row>
-    <row r="17" ht="57.0" customHeight="1">
+    <row r="17" spans="1:31" ht="63" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="12">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>50</v>
       </c>
       <c r="G17" s="11"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="29"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M17" s="6"/>
-      <c r="N17" s="29"/>
+      <c r="N17" s="21"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="29"/>
+      <c r="P17" s="21"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="29"/>
+      <c r="R17" s="21"/>
       <c r="S17" s="6"/>
-      <c r="T17" s="29"/>
+      <c r="T17" s="21"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="29"/>
+      <c r="V17" s="21"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="29"/>
+      <c r="X17" s="21"/>
       <c r="Y17" s="6"/>
-      <c r="Z17" s="29"/>
+      <c r="Z17" s="21"/>
       <c r="AA17" s="6"/>
-      <c r="AB17" s="29"/>
+      <c r="AB17" s="21"/>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="29"/>
+      <c r="AD17" s="21"/>
       <c r="AE17" s="6"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:31" ht="60">
       <c r="A18" s="1"/>
       <c r="B18" s="12">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>53</v>
       </c>
       <c r="G18" s="11"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="29"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M18" s="6"/>
-      <c r="N18" s="29"/>
+      <c r="N18" s="21"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="29"/>
+      <c r="P18" s="21"/>
       <c r="Q18" s="6"/>
-      <c r="R18" s="29"/>
+      <c r="R18" s="21"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="29"/>
+      <c r="T18" s="21"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="29"/>
+      <c r="V18" s="21"/>
       <c r="W18" s="6"/>
-      <c r="X18" s="29"/>
+      <c r="X18" s="21"/>
       <c r="Y18" s="6"/>
-      <c r="Z18" s="29"/>
+      <c r="Z18" s="21"/>
       <c r="AA18" s="6"/>
-      <c r="AB18" s="29"/>
+      <c r="AB18" s="21"/>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="29"/>
+      <c r="AD18" s="21"/>
       <c r="AE18" s="6"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:31" ht="60">
       <c r="A19" s="1"/>
       <c r="B19" s="12">
-        <v>12.0</v>
-      </c>
-      <c r="C19" s="23"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="15"/>
       <c r="D19" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G19" s="11"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="29"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M19" s="6"/>
-      <c r="N19" s="29"/>
+      <c r="N19" s="21"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="29"/>
+      <c r="P19" s="21"/>
       <c r="Q19" s="6"/>
-      <c r="R19" s="29"/>
+      <c r="R19" s="21"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="29"/>
+      <c r="T19" s="21"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="29"/>
+      <c r="V19" s="21"/>
       <c r="W19" s="6"/>
-      <c r="X19" s="29"/>
+      <c r="X19" s="21"/>
       <c r="Y19" s="6"/>
-      <c r="Z19" s="29"/>
+      <c r="Z19" s="21"/>
       <c r="AA19" s="6"/>
-      <c r="AB19" s="29"/>
+      <c r="AB19" s="21"/>
       <c r="AC19" s="6"/>
-      <c r="AD19" s="29"/>
+      <c r="AD19" s="21"/>
       <c r="AE19" s="6"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:31" ht="45">
       <c r="A20" s="1"/>
       <c r="B20" s="12">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>59</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="29"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M20" s="6"/>
-      <c r="N20" s="29"/>
+      <c r="N20" s="21"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="29"/>
+      <c r="P20" s="21"/>
       <c r="Q20" s="6"/>
-      <c r="R20" s="29"/>
+      <c r="R20" s="21"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="29"/>
+      <c r="T20" s="21"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="29"/>
+      <c r="V20" s="21"/>
       <c r="W20" s="6"/>
-      <c r="X20" s="29"/>
+      <c r="X20" s="21"/>
       <c r="Y20" s="6"/>
-      <c r="Z20" s="29"/>
+      <c r="Z20" s="21"/>
       <c r="AA20" s="6"/>
-      <c r="AB20" s="29"/>
+      <c r="AB20" s="21"/>
       <c r="AC20" s="6"/>
-      <c r="AD20" s="29"/>
+      <c r="AD20" s="21"/>
       <c r="AE20" s="6"/>
     </row>
-    <row r="21" ht="41.25" customHeight="1">
+    <row r="21" spans="1:31" ht="46.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="12">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="16" t="s">
         <v>61</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G21" s="11"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="29"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M21" s="6"/>
-      <c r="N21" s="29"/>
+      <c r="N21" s="21"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="29"/>
+      <c r="P21" s="21"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="29"/>
+      <c r="R21" s="21"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="29"/>
+      <c r="T21" s="21"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="29"/>
+      <c r="V21" s="21"/>
       <c r="W21" s="6"/>
-      <c r="X21" s="29"/>
+      <c r="X21" s="21"/>
       <c r="Y21" s="6"/>
-      <c r="Z21" s="29"/>
+      <c r="Z21" s="21"/>
       <c r="AA21" s="6"/>
-      <c r="AB21" s="29"/>
+      <c r="AB21" s="21"/>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="29"/>
+      <c r="AD21" s="21"/>
       <c r="AE21" s="6"/>
     </row>
-    <row r="22" ht="81.75" customHeight="1">
+    <row r="22" spans="1:31" ht="96.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="12">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C22" s="11"/>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="16" t="s">
         <v>64</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>53</v>
       </c>
       <c r="G22" s="11"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="29"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="29"/>
+      <c r="N22" s="21"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="29"/>
+      <c r="P22" s="21"/>
       <c r="Q22" s="6"/>
-      <c r="R22" s="29"/>
+      <c r="R22" s="21"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="29"/>
+      <c r="T22" s="21"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="29"/>
+      <c r="V22" s="21"/>
       <c r="W22" s="6"/>
-      <c r="X22" s="29"/>
+      <c r="X22" s="21"/>
       <c r="Y22" s="6"/>
-      <c r="Z22" s="29"/>
+      <c r="Z22" s="21"/>
       <c r="AA22" s="6"/>
-      <c r="AB22" s="29"/>
+      <c r="AB22" s="21"/>
       <c r="AC22" s="6"/>
-      <c r="AD22" s="29"/>
+      <c r="AD22" s="21"/>
       <c r="AE22" s="6"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41" t="s">
+    <row r="23" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="33">
         <f>COUNT(I8:I22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="33"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41" t="s">
+    <row r="24" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="33">
         <f>COUNTA(D8:D22)</f>
         <v>15</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41" t="s">
+    <row r="25" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="33">
         <f>COUNT(J8:J22)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="42"/>
-      <c r="AE26" s="42"/>
+    <row r="26" spans="1:31" ht="15.75" customHeight="1">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="42"/>
-      <c r="AE27" s="42"/>
+    <row r="27" spans="1:31" ht="14.25" customHeight="1">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="43"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42"/>
+    <row r="28" spans="1:31" ht="14.25" customHeight="1">
+      <c r="A28" s="35"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="42"/>
-      <c r="AB29" s="42"/>
-      <c r="AC29" s="42"/>
-      <c r="AD29" s="42"/>
-      <c r="AE29" s="42"/>
+    <row r="29" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A29" s="35"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="43"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="42"/>
-      <c r="AD30" s="42"/>
-      <c r="AE30" s="42"/>
+    <row r="30" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A30" s="35"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="34"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="42"/>
-      <c r="AA31" s="42"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="42"/>
-      <c r="AD31" s="42"/>
-      <c r="AE31" s="42"/>
+    <row r="31" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A31" s="35"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="43"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="42"/>
-      <c r="AD32" s="42"/>
-      <c r="AE32" s="42"/>
+    <row r="32" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A32" s="35"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="34"/>
+      <c r="AE32" s="34"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="43"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="42"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="42"/>
-      <c r="AD33" s="42"/>
-      <c r="AE33" s="42"/>
+    <row r="33" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A33" s="35"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
+      <c r="AD33" s="34"/>
+      <c r="AE33" s="34"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="43"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="42"/>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="42"/>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="42"/>
-      <c r="AD34" s="42"/>
-      <c r="AE34" s="42"/>
+    <row r="34" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A34" s="35"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="43"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="42"/>
-      <c r="Z35" s="42"/>
-      <c r="AA35" s="42"/>
-      <c r="AB35" s="42"/>
-      <c r="AC35" s="42"/>
-      <c r="AD35" s="42"/>
-      <c r="AE35" s="42"/>
+    <row r="35" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A35" s="35"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="34"/>
+      <c r="AE35" s="34"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="43"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="42"/>
-      <c r="AB36" s="42"/>
-      <c r="AC36" s="42"/>
-      <c r="AD36" s="42"/>
-      <c r="AE36" s="42"/>
+    <row r="36" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A36" s="35"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
+      <c r="AD36" s="34"/>
+      <c r="AE36" s="34"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="43"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="42"/>
-      <c r="AB37" s="42"/>
-      <c r="AC37" s="42"/>
-      <c r="AD37" s="42"/>
-      <c r="AE37" s="42"/>
+    <row r="37" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A37" s="35"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="43"/>
-      <c r="U38" s="42"/>
-      <c r="AE38" s="42"/>
+    <row r="38" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A38" s="35"/>
+      <c r="U38" s="34"/>
+      <c r="AE38" s="34"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="43"/>
-      <c r="U39" s="42"/>
-      <c r="AE39" s="42"/>
+    <row r="39" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A39" s="35"/>
+      <c r="U39" s="34"/>
+      <c r="AE39" s="34"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:31" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -4293,16 +4339,6 @@
     <row r="980" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AB6:AB7"/>
     <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="L6:L7"/>
@@ -4311,25 +4347,33 @@
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="V6:V7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <conditionalFormatting sqref="D16:D18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF57BB8A"/>
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="V8:V10 L8:L22 N8:N22 P8:P22 R8:R22 T8:T22 V12:V22 X8:X22 Z8:Z22 AB8:AB22 AD8:AD22">
       <formula1>Result</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>